--- a/Datenerhebung/spreadsheet.xlsx
+++ b/Datenerhebung/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baldu\switchdrive\Documents_Balduin\Uni\@aktuel\Seminararbeit - Balladen\git\Seminararbeit-Balladen\Datenerhebung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E285AF86-23CE-424D-AD74-E22DC49BDC7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F951847B-ADED-4D9B-92AD-E312D12DE8C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="354">
   <si>
     <t>TSB A 63</t>
   </si>
@@ -558,9 +558,6 @@
     <t>Verlobte wartet vergebens auf ihn (2 Tage)</t>
   </si>
   <si>
-    <t>Met und Wein wird ausgeschenkt; Verlobte erkundigt sich nach Olaf</t>
-  </si>
-  <si>
     <t>SMB_29_J - Motive</t>
   </si>
   <si>
@@ -1051,6 +1048,54 @@
   </si>
   <si>
     <t>33-34</t>
+  </si>
+  <si>
+    <t>NMB_36_B - Motive</t>
+  </si>
+  <si>
+    <t>NMB_36_B - Strophe</t>
+  </si>
+  <si>
+    <t>NMB_36_B - stem_val</t>
+  </si>
+  <si>
+    <t>Seidenhemd, Gold</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>Lehnt unbegründet ab</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>Wahl: schneller Tod oder Krankheit der Verlobten</t>
+  </si>
+  <si>
+    <t>8-9</t>
+  </si>
+  <si>
+    <t>Schlägt ihn mit Stock</t>
+  </si>
+  <si>
+    <t>12-13</t>
+  </si>
+  <si>
+    <t>2x wie er davon reitet</t>
+  </si>
+  <si>
+    <t>14-15</t>
+  </si>
+  <si>
+    <t>Deutet Geschehen kryptisch an</t>
+  </si>
+  <si>
+    <t>Essen und Wein wird ausgeschenkt; Verlobte erkundigt sich nach Olaf</t>
+  </si>
+  <si>
+    <t>25-26</t>
   </si>
 </sst>
 </file>
@@ -1556,13 +1601,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS68"/>
+  <dimension ref="A1:AS71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="AO51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B70" sqref="B70"/>
+      <selection pane="bottomRight" activeCell="AO79" sqref="AO79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1638,7 +1683,7 @@
         <v>111</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>112</v>
@@ -1656,7 +1701,7 @@
         <v>127</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>120</v>
@@ -1674,16 +1719,16 @@
         <v>118</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S3" s="7" t="s">
         <v>59</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="V3" s="7" t="s">
         <v>119</v>
@@ -1704,7 +1749,7 @@
         <v>130</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AC3" s="7" t="s">
         <v>121</v>
@@ -1716,13 +1761,13 @@
         <v>171</v>
       </c>
       <c r="AF3" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG3" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AH3" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AI3" s="7" t="s">
         <v>131</v>
@@ -1839,7 +1884,7 @@
         <v>9</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V6" s="11" t="s">
         <v>10</v>
@@ -1860,7 +1905,7 @@
         <v>14</v>
       </c>
       <c r="AF6" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AI6" s="11" t="s">
         <v>15</v>
@@ -2015,7 +2060,7 @@
         <v>22</v>
       </c>
       <c r="AF8" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG8" s="11" t="s">
         <v>22</v>
@@ -2090,7 +2135,7 @@
         <v>23</v>
       </c>
       <c r="T9" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W9" s="14" t="s">
         <v>24</v>
@@ -2102,7 +2147,7 @@
         <v>27</v>
       </c>
       <c r="AF9" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM9" s="14" t="s">
         <v>29</v>
@@ -2272,7 +2317,7 @@
         <v>22</v>
       </c>
       <c r="AF11" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG11" s="14" t="s">
         <v>22</v>
@@ -2347,7 +2392,7 @@
         <v>9</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V12" s="17" t="s">
         <v>10</v>
@@ -2359,7 +2404,7 @@
         <v>45</v>
       </c>
       <c r="AF12" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM12" s="17" t="s">
         <v>29</v>
@@ -2529,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="AF14" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG14" s="17" t="s">
         <v>22</v>
@@ -2601,10 +2646,10 @@
         <v>76</v>
       </c>
       <c r="T15" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF15" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM15" s="20" t="s">
         <v>77</v>
@@ -2762,7 +2807,7 @@
         <v>22</v>
       </c>
       <c r="AF17" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG17" s="20" t="s">
         <v>22</v>
@@ -2834,10 +2879,10 @@
         <v>84</v>
       </c>
       <c r="T18" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF18" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM18" s="23" t="s">
         <v>77</v>
@@ -2989,7 +3034,7 @@
         <v>22</v>
       </c>
       <c r="AF20" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG20" s="23" t="s">
         <v>22</v>
@@ -3061,10 +3106,10 @@
         <v>76</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF21" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM21" s="11" t="s">
         <v>77</v>
@@ -3216,7 +3261,7 @@
         <v>22</v>
       </c>
       <c r="AF23" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG23" s="11" t="s">
         <v>22</v>
@@ -3288,10 +3333,10 @@
         <v>76</v>
       </c>
       <c r="T24" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF24" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM24" s="14" t="s">
         <v>77</v>
@@ -3443,7 +3488,7 @@
         <v>22</v>
       </c>
       <c r="AF26" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG26" s="14" t="s">
         <v>22</v>
@@ -3509,7 +3554,7 @@
         <v>114</v>
       </c>
       <c r="T27" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V27" s="17" t="s">
         <v>10</v>
@@ -3521,7 +3566,7 @@
         <v>100</v>
       </c>
       <c r="AF27" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AI27" s="17" t="s">
         <v>101</v>
@@ -3706,7 +3751,7 @@
         <v>22</v>
       </c>
       <c r="AF29" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG29" s="17" t="s">
         <v>22</v>
@@ -3778,7 +3823,7 @@
         <v>23</v>
       </c>
       <c r="T30" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA30" s="20" t="s">
         <v>100</v>
@@ -3793,7 +3838,7 @@
         <v>123</v>
       </c>
       <c r="AF30" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM30" s="20" t="s">
         <v>77</v>
@@ -3961,7 +4006,7 @@
         <v>1</v>
       </c>
       <c r="AF32" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG32" s="20" t="s">
         <v>22</v>
@@ -4032,7 +4077,7 @@
         <v>23</v>
       </c>
       <c r="T33" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA33" s="23" t="s">
         <v>100</v>
@@ -4047,7 +4092,7 @@
         <v>123</v>
       </c>
       <c r="AF33" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM33" s="23" t="s">
         <v>77</v>
@@ -4215,7 +4260,7 @@
         <v>1</v>
       </c>
       <c r="AF35" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG35" s="23" t="s">
         <v>22</v>
@@ -4286,7 +4331,7 @@
         <v>23</v>
       </c>
       <c r="T36" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA36" s="11" t="s">
         <v>100</v>
@@ -4301,7 +4346,7 @@
         <v>123</v>
       </c>
       <c r="AF36" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM36" s="11" t="s">
         <v>77</v>
@@ -4469,7 +4514,7 @@
         <v>1</v>
       </c>
       <c r="AF38" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG38" s="11" t="s">
         <v>22</v>
@@ -4540,7 +4585,7 @@
         <v>9</v>
       </c>
       <c r="T39" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V39" s="14" t="s">
         <v>149</v>
@@ -4561,7 +4606,7 @@
         <v>156</v>
       </c>
       <c r="AF39" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM39" s="14" t="s">
         <v>29</v>
@@ -4741,7 +4786,7 @@
         <v>2</v>
       </c>
       <c r="AF41" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG41" s="14" t="s">
         <v>22</v>
@@ -4800,7 +4845,7 @@
         <v>8</v>
       </c>
       <c r="T42" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X42" s="17" t="s">
         <v>44</v>
@@ -4818,7 +4863,7 @@
         <v>123</v>
       </c>
       <c r="AF42" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AJ42" s="17" t="s">
         <v>173</v>
@@ -4827,7 +4872,7 @@
         <v>103</v>
       </c>
       <c r="AM42" s="17" t="s">
-        <v>174</v>
+        <v>352</v>
       </c>
       <c r="AN42" s="17" t="s">
         <v>30</v>
@@ -4971,7 +5016,7 @@
         <v>1</v>
       </c>
       <c r="AF44" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG44" s="17" t="s">
         <v>22</v>
@@ -5012,7 +5057,7 @@
     </row>
     <row r="45" spans="1:44" s="20" customFormat="1">
       <c r="A45" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>70</v>
@@ -5024,10 +5069,10 @@
         <v>19</v>
       </c>
       <c r="E45" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="H45" s="20" t="s">
         <v>178</v>
-      </c>
-      <c r="H45" s="20" t="s">
-        <v>179</v>
       </c>
       <c r="K45" s="20" t="s">
         <v>7</v>
@@ -5039,7 +5084,7 @@
         <v>9</v>
       </c>
       <c r="T45" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V45" s="20" t="s">
         <v>149</v>
@@ -5051,25 +5096,25 @@
         <v>150</v>
       </c>
       <c r="Z45" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF45" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AK45" s="20" t="s">
         <v>103</v>
       </c>
       <c r="AM45" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN45" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="AN45" s="20" t="s">
+      <c r="AO45" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="AO45" s="20" t="s">
+      <c r="AP45" s="20" t="s">
         <v>185</v>
-      </c>
-      <c r="AP45" s="20" t="s">
-        <v>186</v>
       </c>
       <c r="AR45" s="20" t="s">
         <v>34</v>
@@ -5077,7 +5122,7 @@
     </row>
     <row r="46" spans="1:44" s="20" customFormat="1">
       <c r="A46" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -5135,7 +5180,7 @@
     </row>
     <row r="47" spans="1:44" s="20" customFormat="1">
       <c r="A47" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B47" s="19">
         <v>2</v>
@@ -5228,7 +5273,7 @@
         <v>22</v>
       </c>
       <c r="AF47" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG47" s="20" t="s">
         <v>22</v>
@@ -5269,25 +5314,25 @@
     </row>
     <row r="48" spans="1:44" s="23" customFormat="1">
       <c r="A48" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D48" s="23" t="s">
         <v>19</v>
       </c>
       <c r="H48" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K48" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="K48" s="23" t="s">
-        <v>189</v>
-      </c>
       <c r="L48" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M48" s="23" t="s">
         <v>74</v>
@@ -5296,36 +5341,36 @@
         <v>9</v>
       </c>
       <c r="T48" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V48" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA48" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="AA48" s="23" t="s">
-        <v>194</v>
-      </c>
       <c r="AB48" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AC48" s="23" t="s">
         <v>169</v>
       </c>
       <c r="AF48" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG48" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AP48" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR48" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:44" s="23" customFormat="1">
       <c r="A49" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
@@ -5342,7 +5387,7 @@
         <v>2</v>
       </c>
       <c r="M49" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S49" s="23">
         <v>6</v>
@@ -5351,30 +5396,30 @@
         <v>7</v>
       </c>
       <c r="AA49" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AB49" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC49" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="AC49" s="23" t="s">
-        <v>201</v>
-      </c>
       <c r="AF49" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG49" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AP49" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AR49" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:44" s="23" customFormat="1">
       <c r="A50" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B50" s="22">
         <v>6</v>
@@ -5452,10 +5497,10 @@
         <v>22</v>
       </c>
       <c r="AA50" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AB50" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AC50" s="23">
         <v>3</v>
@@ -5467,10 +5512,10 @@
         <v>22</v>
       </c>
       <c r="AF50" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AG50" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AH50" s="23" t="s">
         <v>22</v>
@@ -5497,21 +5542,21 @@
         <v>22</v>
       </c>
       <c r="AP50" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AQ50" s="23" t="s">
         <v>22</v>
       </c>
       <c r="AR50" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:44" s="11" customFormat="1">
       <c r="A51" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>139</v>
@@ -5520,37 +5565,37 @@
         <v>19</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M51" s="11" t="s">
         <v>8</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S51" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="T51" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="T51" s="11" t="s">
+      <c r="U51" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="U51" s="11" t="s">
-        <v>228</v>
-      </c>
       <c r="V51" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="W51" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AA51" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF51" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AR51" s="11" t="s">
         <v>34</v>
@@ -5558,7 +5603,7 @@
     </row>
     <row r="52" spans="1:44" s="11" customFormat="1">
       <c r="A52" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -5566,45 +5611,45 @@
         <v>1</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K52" s="11">
         <v>2</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N52" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S52" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T52" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U52" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="V52" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W52" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA52" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="AA52" s="11" t="s">
-        <v>234</v>
-      </c>
       <c r="AR52" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="1:44" s="11" customFormat="1">
       <c r="A53" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C53" s="10">
         <v>1</v>
@@ -5622,7 +5667,7 @@
         <v>22</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I53" s="11" t="s">
         <v>22</v>
@@ -5640,7 +5685,7 @@
         <v>1</v>
       </c>
       <c r="N53" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O53" s="11" t="s">
         <v>22</v>
@@ -5655,19 +5700,19 @@
         <v>22</v>
       </c>
       <c r="S53" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T53" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="U53" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V53" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="W53" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="X53" s="11" t="s">
         <v>22</v>
@@ -5679,7 +5724,7 @@
         <v>22</v>
       </c>
       <c r="AA53" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AB53" s="11" t="s">
         <v>22</v>
@@ -5694,7 +5739,7 @@
         <v>22</v>
       </c>
       <c r="AF53" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG53" s="11" t="s">
         <v>22</v>
@@ -5735,10 +5780,10 @@
     </row>
     <row r="54" spans="1:44" s="14" customFormat="1">
       <c r="A54" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>139</v>
@@ -5747,34 +5792,34 @@
         <v>19</v>
       </c>
       <c r="G54" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="H54" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="H54" s="14" t="s">
+      <c r="J54" s="14" t="s">
         <v>240</v>
-      </c>
-      <c r="J54" s="14" t="s">
-        <v>241</v>
       </c>
       <c r="K54" s="14" t="s">
         <v>7</v>
       </c>
       <c r="L54" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M54" s="14" t="s">
         <v>74</v>
       </c>
       <c r="N54" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="S54" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="S54" s="14" t="s">
+      <c r="T54" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="U54" s="14" t="s">
         <v>246</v>
-      </c>
-      <c r="T54" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="U54" s="14" t="s">
-        <v>247</v>
       </c>
       <c r="W54" s="14" t="s">
         <v>24</v>
@@ -5786,7 +5831,7 @@
         <v>150</v>
       </c>
       <c r="Z54" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AD54" s="14" t="s">
         <v>170</v>
@@ -5795,13 +5840,13 @@
         <v>123</v>
       </c>
       <c r="AF54" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AK54" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AL54" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AM54" s="14" t="s">
         <v>77</v>
@@ -5815,7 +5860,7 @@
     </row>
     <row r="55" spans="1:44" s="14" customFormat="1">
       <c r="A55" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
@@ -5823,69 +5868,69 @@
         <v>1</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L55" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="M55" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="M55" s="14" t="s">
-        <v>244</v>
-      </c>
       <c r="N55" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S55" s="14" t="s">
         <v>21</v>
       </c>
       <c r="U55" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="W55" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="W55" s="14" t="s">
+      <c r="X55" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="X55" s="14" t="s">
-        <v>250</v>
-      </c>
       <c r="Y55" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Z55" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD55" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE55" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="AD55" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="AE55" s="14" t="s">
-        <v>254</v>
-      </c>
       <c r="AK55" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AL55" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="AM55" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN55" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="AM55" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="AN55" s="14" t="s">
+      <c r="AP55" s="14" t="s">
         <v>259</v>
-      </c>
-      <c r="AP55" s="14" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:44" s="14" customFormat="1">
       <c r="A56" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>22</v>
@@ -5903,28 +5948,28 @@
         <v>22</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I56" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K56" s="14">
         <v>1</v>
       </c>
       <c r="L56" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M56" s="14">
         <v>2</v>
       </c>
       <c r="N56" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O56" s="14" t="s">
         <v>22</v>
@@ -5939,13 +5984,13 @@
         <v>22</v>
       </c>
       <c r="S56" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T56" s="14">
         <v>1</v>
       </c>
       <c r="U56" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="V56" s="14" t="s">
         <v>22</v>
@@ -5960,7 +6005,7 @@
         <v>2</v>
       </c>
       <c r="Z56" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AA56" s="14" t="s">
         <v>22</v>
@@ -5978,7 +6023,7 @@
         <v>1</v>
       </c>
       <c r="AF56" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG56" s="14" t="s">
         <v>22</v>
@@ -5993,10 +6038,10 @@
         <v>22</v>
       </c>
       <c r="AK56" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AL56" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AM56" s="14">
         <v>2</v>
@@ -6019,7 +6064,7 @@
     </row>
     <row r="57" spans="1:44" s="17" customFormat="1">
       <c r="A57" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>70</v>
@@ -6031,13 +6076,13 @@
         <v>19</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H57" s="17" t="s">
         <v>72</v>
       </c>
       <c r="J57" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K57" s="17" t="s">
         <v>7</v>
@@ -6046,16 +6091,16 @@
         <v>74</v>
       </c>
       <c r="T57" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF57" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM57" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AN57" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AP57" s="17" t="s">
         <v>33</v>
@@ -6066,7 +6111,7 @@
     </row>
     <row r="58" spans="1:44" s="17" customFormat="1">
       <c r="A58" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
@@ -6074,36 +6119,36 @@
         <v>1</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J58" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K58" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M58" s="17">
         <v>3</v>
       </c>
       <c r="AM58" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AN58" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP58" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="AR58" s="17" t="s">
         <v>268</v>
-      </c>
-      <c r="AP58" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="AR58" s="17" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="59" spans="1:44" s="17" customFormat="1">
       <c r="A59" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B59" s="16">
         <v>2</v>
@@ -6115,7 +6160,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F59" s="17" t="s">
         <v>22</v>
@@ -6130,7 +6175,7 @@
         <v>22</v>
       </c>
       <c r="J59" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K59" s="17">
         <v>1</v>
@@ -6196,7 +6241,7 @@
         <v>22</v>
       </c>
       <c r="AF59" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG59" s="17" t="s">
         <v>22</v>
@@ -6217,10 +6262,10 @@
         <v>22</v>
       </c>
       <c r="AM59" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AN59" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AO59" s="17" t="s">
         <v>22</v>
@@ -6237,7 +6282,7 @@
     </row>
     <row r="60" spans="1:44" s="20" customFormat="1">
       <c r="A60" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B60" s="19" t="s">
         <v>69</v>
@@ -6252,28 +6297,28 @@
         <v>4</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H60" s="20" t="s">
         <v>5</v>
       </c>
       <c r="I60" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J60" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K60" s="20" t="s">
         <v>7</v>
       </c>
       <c r="M60" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S60" s="20" t="s">
         <v>9</v>
       </c>
       <c r="T60" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V60" s="20" t="s">
         <v>10</v>
@@ -6288,88 +6333,88 @@
         <v>150</v>
       </c>
       <c r="Z60" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AA60" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AC60" s="20" t="s">
         <v>14</v>
       </c>
       <c r="AF60" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AH60" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AR60" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="61" spans="1:44" s="20" customFormat="1">
       <c r="A61" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
       <c r="D61" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E61" s="20">
         <v>1</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H61" s="20">
         <v>2</v>
       </c>
       <c r="I61" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J61" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K61" s="20">
         <v>4</v>
       </c>
       <c r="M61" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="S61" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="V61" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="W61" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="S61" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="V61" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="W61" s="20" t="s">
+      <c r="X61" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="X61" s="20" t="s">
-        <v>279</v>
-      </c>
       <c r="Y61" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Z61" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA61" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC61" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="AA61" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC61" s="20" t="s">
-        <v>249</v>
-      </c>
       <c r="AH61" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AR61" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="62" spans="1:44" s="20" customFormat="1">
       <c r="A62" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B62" s="19">
         <v>1</v>
@@ -6384,7 +6429,7 @@
         <v>1</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G62" s="20" t="s">
         <v>22</v>
@@ -6393,10 +6438,10 @@
         <v>1</v>
       </c>
       <c r="I62" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J62" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K62" s="20">
         <v>1</v>
@@ -6405,7 +6450,7 @@
         <v>22</v>
       </c>
       <c r="M62" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N62" s="20" t="s">
         <v>22</v>
@@ -6444,10 +6489,10 @@
         <v>2</v>
       </c>
       <c r="Z62" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AA62" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AB62" s="20" t="s">
         <v>22</v>
@@ -6462,13 +6507,13 @@
         <v>22</v>
       </c>
       <c r="AF62" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG62" s="20" t="s">
         <v>22</v>
       </c>
       <c r="AH62" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AI62" s="20" t="s">
         <v>22</v>
@@ -6498,66 +6543,66 @@
         <v>22</v>
       </c>
       <c r="AR62" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63" spans="1:44" s="23" customFormat="1">
       <c r="A63" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B63" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="C63" s="22" t="s">
         <v>289</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>290</v>
       </c>
       <c r="D63" s="23" t="s">
         <v>19</v>
       </c>
       <c r="H63" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="I63" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="I63" s="23" t="s">
-        <v>292</v>
-      </c>
       <c r="K63" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="M63" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="M63" s="23" t="s">
+      <c r="N63" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="N63" s="23" t="s">
-        <v>296</v>
-      </c>
       <c r="R63" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S63" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T63" s="23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="V63" s="23" t="s">
         <v>149</v>
       </c>
       <c r="W63" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X63" s="23" t="s">
         <v>44</v>
       </c>
       <c r="Y63" s="23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Z63" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AA63" s="23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AI63" s="23" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AR63" s="23" t="s">
         <v>55</v>
@@ -6565,7 +6610,7 @@
     </row>
     <row r="64" spans="1:44" s="23" customFormat="1">
       <c r="A64" s="21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B64" s="22"/>
       <c r="C64" s="22"/>
@@ -6573,63 +6618,63 @@
         <v>1</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I64" s="23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K64" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M64" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N64" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R64" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S64" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="T64" s="23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="V64" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="W64" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="X64" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="X64" s="23" t="s">
-        <v>259</v>
-      </c>
       <c r="Y64" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Z64" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AA64" s="23" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AI64" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR64" s="23" t="s">
         <v>308</v>
-      </c>
-      <c r="AR64" s="23" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="65" spans="1:44" s="23" customFormat="1">
       <c r="A65" s="21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D65" s="23">
         <v>1</v>
@@ -6644,25 +6689,25 @@
         <v>22</v>
       </c>
       <c r="H65" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I65" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J65" s="23" t="s">
         <v>22</v>
       </c>
       <c r="K65" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L65" s="23" t="s">
         <v>22</v>
       </c>
       <c r="M65" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N65" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O65" s="23" t="s">
         <v>22</v>
@@ -6674,13 +6719,13 @@
         <v>22</v>
       </c>
       <c r="R65" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S65" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T65" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U65" s="23" t="s">
         <v>22</v>
@@ -6689,19 +6734,19 @@
         <v>2</v>
       </c>
       <c r="W65" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X65" s="23">
         <v>1</v>
       </c>
       <c r="Y65" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z65" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AA65" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AB65" s="23" t="s">
         <v>22</v>
@@ -6725,7 +6770,7 @@
         <v>22</v>
       </c>
       <c r="AI65" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AJ65" s="23" t="s">
         <v>22</v>
@@ -6752,72 +6797,78 @@
         <v>22</v>
       </c>
       <c r="AR65" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" spans="1:44" s="11" customFormat="1">
       <c r="A66" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B66" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C66" s="10" t="s">
         <v>313</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>314</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H66" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="I66" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="I66" s="11" t="s">
+      <c r="K66" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="L66" s="11" t="s">
         <v>318</v>
-      </c>
-      <c r="K66" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="L66" s="11" t="s">
-        <v>319</v>
       </c>
       <c r="M66" s="11" t="s">
         <v>74</v>
       </c>
+      <c r="O66" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q66" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="S66" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="T66" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="U66" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="T66" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="U66" s="11" t="s">
-        <v>322</v>
-      </c>
       <c r="V66" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="W66" s="11" t="s">
         <v>24</v>
       </c>
       <c r="AA66" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF66" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG66" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="AI66" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="AI66" s="11" t="s">
-        <v>328</v>
-      </c>
       <c r="AL66" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AM66" s="11" t="s">
         <v>77</v>
@@ -6826,13 +6877,13 @@
         <v>30</v>
       </c>
       <c r="AO66" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AP66" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AQ66" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AR66" s="11" t="s">
         <v>55</v>
@@ -6840,116 +6891,122 @@
     </row>
     <row r="67" spans="1:44" s="11" customFormat="1">
       <c r="A67" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K67" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L67" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M67" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
+      </c>
+      <c r="O67" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q67" s="11" t="s">
+        <v>300</v>
       </c>
       <c r="S67" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U67" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="V67" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W67" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AA67" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF67" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="AF67" s="11" t="s">
-        <v>326</v>
-      </c>
       <c r="AG67" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AI67" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AL67" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AM67" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AN67" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AO67" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="AP67" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="AQ67" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="AR67" s="11" t="s">
         <v>333</v>
-      </c>
-      <c r="AP67" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="AQ67" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="AR67" s="11" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="68" spans="1:44" s="11" customFormat="1">
       <c r="A68" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="11">
         <v>1</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G68" s="11" t="s">
         <v>22</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J68" s="11" t="s">
         <v>22</v>
       </c>
       <c r="K68" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L68" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M68" s="11">
         <v>2</v>
@@ -6958,28 +7015,28 @@
         <v>22</v>
       </c>
       <c r="O68" s="11" t="s">
-        <v>22</v>
+        <v>205</v>
       </c>
       <c r="P68" s="11" t="s">
         <v>22</v>
       </c>
       <c r="Q68" s="11" t="s">
-        <v>22</v>
+        <v>196</v>
       </c>
       <c r="R68" s="11" t="s">
         <v>22</v>
       </c>
       <c r="S68" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T68" s="11">
         <v>1</v>
       </c>
       <c r="U68" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="V68" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="W68" s="11">
         <v>1</v>
@@ -6994,7 +7051,7 @@
         <v>22</v>
       </c>
       <c r="AA68" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AB68" s="11" t="s">
         <v>22</v>
@@ -7009,43 +7066,327 @@
         <v>22</v>
       </c>
       <c r="AF68" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG68" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH68" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI68" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ68" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK68" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL68" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM68" s="11">
+        <v>2</v>
+      </c>
+      <c r="AN68" s="11">
+        <v>1</v>
+      </c>
+      <c r="AO68" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="AP68" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AQ68" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AR68" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:44" s="14" customFormat="1">
+      <c r="A69" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="J69" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="K69" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="L69" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="M69" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="O69" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q69" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="S69" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="T69" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="U69" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="W69" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="X69" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y69" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z69" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="AD69" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE69" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF69" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="AG68" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="AH68" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI68" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="AJ68" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK68" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL68" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AM68" s="11">
-        <v>2</v>
-      </c>
-      <c r="AN68" s="11">
-        <v>1</v>
-      </c>
-      <c r="AO68" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="AP68" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="AQ68" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AR68" s="11" t="s">
-        <v>197</v>
+      <c r="AK69" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM69" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="AN69" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP69" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR69" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:44" s="14" customFormat="1">
+      <c r="A70" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="J70" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="K70" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="L70" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="M70" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="O70" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q70" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="S70" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="U70" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="W70" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="X70" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y70" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z70" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="AD70" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE70" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="AK70" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM70" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="AN70" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="AP70" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="AR70" s="14" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="71" spans="1:44" s="14" customFormat="1">
+      <c r="A71" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="B71" s="13">
+        <v>2</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D71" s="14">
+        <v>1</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="H71" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I71" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J71" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="K71" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="L71" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="M71" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="N71" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O71" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="P71" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q71" s="14">
+        <v>1</v>
+      </c>
+      <c r="R71" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="S71" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="T71" s="14">
+        <v>1</v>
+      </c>
+      <c r="U71" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="V71" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="W71" s="14">
+        <v>1</v>
+      </c>
+      <c r="X71" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y71" s="14">
+        <v>2</v>
+      </c>
+      <c r="Z71" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA71" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB71" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC71" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD71" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE71" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF71" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG71" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH71" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI71" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ71" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK71" s="14">
+        <v>1</v>
+      </c>
+      <c r="AL71" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM71" s="14">
+        <v>3</v>
+      </c>
+      <c r="AN71" s="14">
+        <v>1</v>
+      </c>
+      <c r="AO71" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP71" s="14">
+        <v>5</v>
+      </c>
+      <c r="AQ71" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR71" s="14" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -11704,7 +12045,7 @@
       </c>
       <c r="O22" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(O22)*3)*1,COLUMN(O22)-1)</f>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="P22" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(P22)*3)*1,COLUMN(P22)-1)</f>
@@ -11712,7 +12053,7 @@
       </c>
       <c r="Q22" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(Q22)*3)*1,COLUMN(Q22)-1)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="R22" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(R22)*3)*1,COLUMN(R22)-1)</f>
@@ -11864,181 +12205,181 @@
       </c>
     </row>
     <row r="23" spans="1:54">
-      <c r="A23" s="26">
+      <c r="A23" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(A23)*3)*1,COLUMN(A23)-1)</f>
-        <v>0</v>
+        <v>NMB_36_B - stem_val</v>
       </c>
       <c r="B23" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(B23)*3)*1,COLUMN(B23)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="26">
+        <v>2</v>
+      </c>
+      <c r="C23" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(C23)*3)*1,COLUMN(C23)-1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(D23)*3)*1,COLUMN(D23)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="26">
+        <v>1</v>
+      </c>
+      <c r="E23" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(E23)*3)*1,COLUMN(E23)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="26">
+        <v>-</v>
+      </c>
+      <c r="F23" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(F23)*3)*1,COLUMN(F23)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="26">
+        <v>-</v>
+      </c>
+      <c r="G23" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(G23)*3)*1,COLUMN(G23)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="26">
+        <v>2</v>
+      </c>
+      <c r="H23" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(H23)*3)*1,COLUMN(H23)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="26">
+        <v>-</v>
+      </c>
+      <c r="I23" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(I23)*3)*1,COLUMN(I23)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="26">
+        <v>-</v>
+      </c>
+      <c r="J23" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(J23)*3)*1,COLUMN(J23)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="26">
+        <v>1</v>
+      </c>
+      <c r="K23" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(K23)*3)*1,COLUMN(K23)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="26">
+        <v>1</v>
+      </c>
+      <c r="L23" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(L23)*3)*1,COLUMN(L23)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="26">
+        <v>4</v>
+      </c>
+      <c r="M23" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(M23)*3)*1,COLUMN(M23)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="26">
+        <v>5</v>
+      </c>
+      <c r="N23" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(N23)*3)*1,COLUMN(N23)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="O23" s="26">
+        <v>-</v>
+      </c>
+      <c r="O23" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(O23)*3)*1,COLUMN(O23)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="P23" s="26">
+        <v>2</v>
+      </c>
+      <c r="P23" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(P23)*3)*1,COLUMN(P23)-1)</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="Q23" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(Q23)*3)*1,COLUMN(Q23)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="R23" s="26">
+        <v>1</v>
+      </c>
+      <c r="R23" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(R23)*3)*1,COLUMN(R23)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="26">
+        <v>-</v>
+      </c>
+      <c r="S23" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(S23)*3)*1,COLUMN(S23)-1)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T23" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(T23)*3)*1,COLUMN(T23)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="26">
+        <v>1</v>
+      </c>
+      <c r="U23" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(U23)*3)*1,COLUMN(U23)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="V23" s="26">
+        <v>4</v>
+      </c>
+      <c r="V23" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(V23)*3)*1,COLUMN(V23)-1)</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="W23" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(W23)*3)*1,COLUMN(W23)-1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(X23)*3)*1,COLUMN(X23)-1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(Y23)*3)*1,COLUMN(Y23)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="Z23" s="26">
+        <v>2</v>
+      </c>
+      <c r="Z23" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(Z23)*3)*1,COLUMN(Z23)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AA23" s="26">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AA23)*3)*1,COLUMN(AA23)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AB23" s="26">
+        <v>-</v>
+      </c>
+      <c r="AB23" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AB23)*3)*1,COLUMN(AB23)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AC23" s="26">
+        <v>-</v>
+      </c>
+      <c r="AC23" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AC23)*3)*1,COLUMN(AC23)-1)</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="AD23" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AD23)*3)*1,COLUMN(AD23)-1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE23" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AE23)*3)*1,COLUMN(AE23)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AF23" s="26">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AF23)*3)*1,COLUMN(AF23)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AG23" s="26">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AG23)*3)*1,COLUMN(AG23)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AH23" s="26">
+        <v>-</v>
+      </c>
+      <c r="AH23" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AH23)*3)*1,COLUMN(AH23)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AI23" s="26">
+        <v>-</v>
+      </c>
+      <c r="AI23" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AI23)*3)*1,COLUMN(AI23)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="26">
+        <v>-</v>
+      </c>
+      <c r="AJ23" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AJ23)*3)*1,COLUMN(AJ23)-1)</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="AK23" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AK23)*3)*1,COLUMN(AK23)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AL23" s="26">
+        <v>1</v>
+      </c>
+      <c r="AL23" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AL23)*3)*1,COLUMN(AL23)-1)</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="AM23" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AM23)*3)*1,COLUMN(AM23)-1)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN23" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AN23)*3)*1,COLUMN(AN23)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AO23" s="26">
+        <v>1</v>
+      </c>
+      <c r="AO23" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AO23)*3)*1,COLUMN(AO23)-1)</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="AP23" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AP23)*3)*1,COLUMN(AP23)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ23" s="26">
+        <v>5</v>
+      </c>
+      <c r="AQ23" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AQ23)*3)*1,COLUMN(AQ23)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AR23" s="26">
+        <v>-</v>
+      </c>
+      <c r="AR23" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AR23)*3)*1,COLUMN(AR23)-1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS23" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AS23)*3)*1,COLUMN(AS23)-1)</f>

--- a/Datenerhebung/spreadsheet.xlsx
+++ b/Datenerhebung/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baldu\switchdrive\Documents_Balduin\Uni\@aktuel\Seminararbeit - Balladen\git\Seminararbeit-Balladen\Datenerhebung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD50FC9-DC77-45E1-874C-F566D77DCE05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F14FF1F-8BC8-4A2A-A0A9-B8BE4FE5C9E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="407">
   <si>
     <t>TSB A 63</t>
   </si>
@@ -1237,6 +1237,24 @@
   </si>
   <si>
     <t>37-39</t>
+  </si>
+  <si>
+    <t>CCF_154_B - Motive</t>
+  </si>
+  <si>
+    <t>CCF_154_B - Strophe</t>
+  </si>
+  <si>
+    <t>CCF_154_B - stem_val</t>
+  </si>
+  <si>
+    <t>Mit Kohle und Schmied</t>
+  </si>
+  <si>
+    <t>Ólavur Rósinkrans</t>
+  </si>
+  <si>
+    <t>23-24</t>
   </si>
 </sst>
 </file>
@@ -1742,13 +1760,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX77"/>
+  <dimension ref="A1:AX80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="H54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="AT60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M78" sqref="M78"/>
+      <selection pane="bottomRight" activeCell="AX1" sqref="AX1:AX1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -4167,6 +4185,7 @@
       <c r="AW30" s="20" t="s">
         <v>34</v>
       </c>
+      <c r="AX30" s="4"/>
     </row>
     <row r="31" spans="1:50" s="20" customFormat="1">
       <c r="A31" s="18" t="s">
@@ -4223,6 +4242,7 @@
       <c r="AW31" s="20" t="s">
         <v>106</v>
       </c>
+      <c r="AX31" s="4"/>
     </row>
     <row r="32" spans="1:50" s="20" customFormat="1">
       <c r="A32" s="18" t="s">
@@ -4372,8 +4392,9 @@
       <c r="AW32" s="20">
         <v>1</v>
       </c>
+      <c r="AX32" s="4"/>
     </row>
-    <row r="33" spans="1:49" s="23" customFormat="1">
+    <row r="33" spans="1:50" s="23" customFormat="1">
       <c r="A33" s="21" t="s">
         <v>140</v>
       </c>
@@ -4440,8 +4461,9 @@
       <c r="AW33" s="23" t="s">
         <v>34</v>
       </c>
+      <c r="AX33" s="4"/>
     </row>
-    <row r="34" spans="1:49" s="23" customFormat="1">
+    <row r="34" spans="1:50" s="23" customFormat="1">
       <c r="A34" s="21" t="s">
         <v>141</v>
       </c>
@@ -4496,8 +4518,9 @@
       <c r="AW34" s="23" t="s">
         <v>106</v>
       </c>
+      <c r="AX34" s="4"/>
     </row>
-    <row r="35" spans="1:49" s="23" customFormat="1">
+    <row r="35" spans="1:50" s="23" customFormat="1">
       <c r="A35" s="21" t="s">
         <v>142</v>
       </c>
@@ -4645,8 +4668,9 @@
       <c r="AW35" s="23">
         <v>1</v>
       </c>
+      <c r="AX35" s="4"/>
     </row>
-    <row r="36" spans="1:49" s="11" customFormat="1">
+    <row r="36" spans="1:50" s="11" customFormat="1">
       <c r="A36" s="9" t="s">
         <v>143</v>
       </c>
@@ -4713,8 +4737,9 @@
       <c r="AW36" s="11" t="s">
         <v>34</v>
       </c>
+      <c r="AX36" s="4"/>
     </row>
-    <row r="37" spans="1:49" s="11" customFormat="1">
+    <row r="37" spans="1:50" s="11" customFormat="1">
       <c r="A37" s="9" t="s">
         <v>144</v>
       </c>
@@ -4769,8 +4794,9 @@
       <c r="AW37" s="11" t="s">
         <v>106</v>
       </c>
+      <c r="AX37" s="4"/>
     </row>
-    <row r="38" spans="1:49" s="11" customFormat="1">
+    <row r="38" spans="1:50" s="11" customFormat="1">
       <c r="A38" s="9" t="s">
         <v>145</v>
       </c>
@@ -4918,8 +4944,9 @@
       <c r="AW38" s="11">
         <v>1</v>
       </c>
+      <c r="AX38" s="4"/>
     </row>
-    <row r="39" spans="1:49" s="14" customFormat="1">
+    <row r="39" spans="1:50" s="14" customFormat="1">
       <c r="A39" s="12" t="s">
         <v>153</v>
       </c>
@@ -4995,8 +5022,9 @@
       <c r="AW39" s="14" t="s">
         <v>34</v>
       </c>
+      <c r="AX39" s="4"/>
     </row>
-    <row r="40" spans="1:49" s="14" customFormat="1">
+    <row r="40" spans="1:50" s="14" customFormat="1">
       <c r="A40" s="12" t="s">
         <v>154</v>
       </c>
@@ -5060,8 +5088,9 @@
       <c r="AW40" s="14" t="s">
         <v>161</v>
       </c>
+      <c r="AX40" s="4"/>
     </row>
-    <row r="41" spans="1:49" s="14" customFormat="1">
+    <row r="41" spans="1:50" s="14" customFormat="1">
       <c r="A41" s="12" t="s">
         <v>155</v>
       </c>
@@ -5209,8 +5238,9 @@
       <c r="AW41" s="14">
         <v>1</v>
       </c>
+      <c r="AX41" s="4"/>
     </row>
-    <row r="42" spans="1:49" s="17" customFormat="1">
+    <row r="42" spans="1:50" s="17" customFormat="1">
       <c r="A42" s="15" t="s">
         <v>162</v>
       </c>
@@ -5265,8 +5295,9 @@
       <c r="AS42" s="17" t="s">
         <v>30</v>
       </c>
+      <c r="AX42" s="4"/>
     </row>
-    <row r="43" spans="1:49" s="17" customFormat="1">
+    <row r="43" spans="1:50" s="17" customFormat="1">
       <c r="A43" s="15" t="s">
         <v>163</v>
       </c>
@@ -5309,8 +5340,9 @@
       <c r="AS43" s="17">
         <v>9</v>
       </c>
+      <c r="AX43" s="4"/>
     </row>
-    <row r="44" spans="1:49" s="17" customFormat="1">
+    <row r="44" spans="1:50" s="17" customFormat="1">
       <c r="A44" s="15" t="s">
         <v>164</v>
       </c>
@@ -5458,8 +5490,9 @@
       <c r="AW44" s="17" t="s">
         <v>22</v>
       </c>
+      <c r="AX44" s="4"/>
     </row>
-    <row r="45" spans="1:49" s="20" customFormat="1">
+    <row r="45" spans="1:50" s="20" customFormat="1">
       <c r="A45" s="18" t="s">
         <v>174</v>
       </c>
@@ -5526,8 +5559,9 @@
       <c r="AW45" s="20" t="s">
         <v>34</v>
       </c>
+      <c r="AX45" s="4"/>
     </row>
-    <row r="46" spans="1:49" s="20" customFormat="1">
+    <row r="46" spans="1:50" s="20" customFormat="1">
       <c r="A46" s="18" t="s">
         <v>175</v>
       </c>
@@ -5585,8 +5619,9 @@
       <c r="AW46" s="20" t="s">
         <v>160</v>
       </c>
+      <c r="AX46" s="4"/>
     </row>
-    <row r="47" spans="1:49" s="20" customFormat="1">
+    <row r="47" spans="1:50" s="20" customFormat="1">
       <c r="A47" s="18" t="s">
         <v>176</v>
       </c>
@@ -5734,8 +5769,9 @@
       <c r="AW47" s="20">
         <v>1</v>
       </c>
+      <c r="AX47" s="4"/>
     </row>
-    <row r="48" spans="1:49" s="23" customFormat="1">
+    <row r="48" spans="1:50" s="23" customFormat="1">
       <c r="A48" s="21" t="s">
         <v>214</v>
       </c>
@@ -5793,8 +5829,9 @@
       <c r="AW48" s="23" t="s">
         <v>213</v>
       </c>
+      <c r="AX48" s="4"/>
     </row>
-    <row r="49" spans="1:49" s="23" customFormat="1">
+    <row r="49" spans="1:50" s="23" customFormat="1">
       <c r="A49" s="21" t="s">
         <v>215</v>
       </c>
@@ -5843,8 +5880,9 @@
       <c r="AW49" s="23" t="s">
         <v>211</v>
       </c>
+      <c r="AX49" s="4"/>
     </row>
-    <row r="50" spans="1:49" s="23" customFormat="1">
+    <row r="50" spans="1:50" s="23" customFormat="1">
       <c r="A50" s="21" t="s">
         <v>216</v>
       </c>
@@ -5992,8 +6030,9 @@
       <c r="AW50" s="23" t="s">
         <v>205</v>
       </c>
+      <c r="AX50" s="4"/>
     </row>
-    <row r="51" spans="1:49" s="11" customFormat="1">
+    <row r="51" spans="1:50" s="11" customFormat="1">
       <c r="A51" s="9" t="s">
         <v>217</v>
       </c>
@@ -6045,8 +6084,9 @@
       <c r="AW51" s="11" t="s">
         <v>34</v>
       </c>
+      <c r="AX51" s="4"/>
     </row>
-    <row r="52" spans="1:49" s="11" customFormat="1">
+    <row r="52" spans="1:50" s="11" customFormat="1">
       <c r="A52" s="9" t="s">
         <v>218</v>
       </c>
@@ -6089,8 +6129,9 @@
       <c r="AW52" s="11" t="s">
         <v>199</v>
       </c>
+      <c r="AX52" s="4"/>
     </row>
-    <row r="53" spans="1:49" s="11" customFormat="1">
+    <row r="53" spans="1:50" s="11" customFormat="1">
       <c r="A53" s="9" t="s">
         <v>219</v>
       </c>
@@ -6238,8 +6279,9 @@
       <c r="AW53" s="11">
         <v>1</v>
       </c>
+      <c r="AX53" s="4"/>
     </row>
-    <row r="54" spans="1:49" s="14" customFormat="1">
+    <row r="54" spans="1:50" s="14" customFormat="1">
       <c r="A54" s="12" t="s">
         <v>234</v>
       </c>
@@ -6321,8 +6363,9 @@
       <c r="AU54" s="14" t="s">
         <v>158</v>
       </c>
+      <c r="AX54" s="4"/>
     </row>
-    <row r="55" spans="1:49" s="14" customFormat="1">
+    <row r="55" spans="1:50" s="14" customFormat="1">
       <c r="A55" s="12" t="s">
         <v>235</v>
       </c>
@@ -6392,8 +6435,9 @@
       <c r="AU55" s="14" t="s">
         <v>259</v>
       </c>
+      <c r="AX55" s="4"/>
     </row>
-    <row r="56" spans="1:49" s="14" customFormat="1">
+    <row r="56" spans="1:50" s="14" customFormat="1">
       <c r="A56" s="12" t="s">
         <v>236</v>
       </c>
@@ -6541,8 +6585,9 @@
       <c r="AW56" s="14" t="s">
         <v>22</v>
       </c>
+      <c r="AX56" s="4"/>
     </row>
-    <row r="57" spans="1:49" s="17" customFormat="1">
+    <row r="57" spans="1:50" s="17" customFormat="1">
       <c r="A57" s="15" t="s">
         <v>260</v>
       </c>
@@ -6591,8 +6636,9 @@
       <c r="AW57" s="17" t="s">
         <v>34</v>
       </c>
+      <c r="AX57" s="4"/>
     </row>
-    <row r="58" spans="1:49" s="17" customFormat="1">
+    <row r="58" spans="1:50" s="17" customFormat="1">
       <c r="A58" s="15" t="s">
         <v>261</v>
       </c>
@@ -6629,8 +6675,9 @@
       <c r="AW58" s="17" t="s">
         <v>268</v>
       </c>
+      <c r="AX58" s="4"/>
     </row>
-    <row r="59" spans="1:49" s="17" customFormat="1">
+    <row r="59" spans="1:50" s="17" customFormat="1">
       <c r="A59" s="15" t="s">
         <v>262</v>
       </c>
@@ -6778,8 +6825,9 @@
       <c r="AW59" s="17">
         <v>1</v>
       </c>
+      <c r="AX59" s="4"/>
     </row>
-    <row r="60" spans="1:49" s="20" customFormat="1">
+    <row r="60" spans="1:50" s="20" customFormat="1">
       <c r="A60" s="18" t="s">
         <v>269</v>
       </c>
@@ -6852,8 +6900,9 @@
       <c r="AW60" s="20" t="s">
         <v>283</v>
       </c>
+      <c r="AX60" s="4"/>
     </row>
-    <row r="61" spans="1:49" s="20" customFormat="1">
+    <row r="61" spans="1:50" s="20" customFormat="1">
       <c r="A61" s="18" t="s">
         <v>270</v>
       </c>
@@ -6914,8 +6963,9 @@
       <c r="AW61" s="20" t="s">
         <v>284</v>
       </c>
+      <c r="AX61" s="4"/>
     </row>
-    <row r="62" spans="1:49" s="20" customFormat="1">
+    <row r="62" spans="1:50" s="20" customFormat="1">
       <c r="A62" s="18" t="s">
         <v>271</v>
       </c>
@@ -7063,8 +7113,9 @@
       <c r="AW62" s="20" t="s">
         <v>205</v>
       </c>
+      <c r="AX62" s="4"/>
     </row>
-    <row r="63" spans="1:49" s="23" customFormat="1">
+    <row r="63" spans="1:50" s="23" customFormat="1">
       <c r="A63" s="21" t="s">
         <v>285</v>
       </c>
@@ -7128,8 +7179,9 @@
       <c r="AW63" s="23" t="s">
         <v>55</v>
       </c>
+      <c r="AX63" s="4"/>
     </row>
-    <row r="64" spans="1:49" s="23" customFormat="1">
+    <row r="64" spans="1:50" s="23" customFormat="1">
       <c r="A64" s="21" t="s">
         <v>286</v>
       </c>
@@ -7187,8 +7239,9 @@
       <c r="AW64" s="23" t="s">
         <v>308</v>
       </c>
+      <c r="AX64" s="4"/>
     </row>
-    <row r="65" spans="1:49" s="23" customFormat="1">
+    <row r="65" spans="1:50" s="23" customFormat="1">
       <c r="A65" s="21" t="s">
         <v>287</v>
       </c>
@@ -7336,8 +7389,9 @@
       <c r="AW65" s="23" t="s">
         <v>196</v>
       </c>
+      <c r="AX65" s="4"/>
     </row>
-    <row r="66" spans="1:49" s="11" customFormat="1">
+    <row r="66" spans="1:50" s="11" customFormat="1">
       <c r="A66" s="9" t="s">
         <v>309</v>
       </c>
@@ -7428,8 +7482,9 @@
       <c r="AW66" s="11" t="s">
         <v>55</v>
       </c>
+      <c r="AX66" s="4"/>
     </row>
-    <row r="67" spans="1:49" s="11" customFormat="1">
+    <row r="67" spans="1:50" s="11" customFormat="1">
       <c r="A67" s="9" t="s">
         <v>310</v>
       </c>
@@ -7511,8 +7566,9 @@
       <c r="AW67" s="11" t="s">
         <v>333</v>
       </c>
+      <c r="AX67" s="4"/>
     </row>
-    <row r="68" spans="1:49" s="11" customFormat="1">
+    <row r="68" spans="1:50" s="11" customFormat="1">
       <c r="A68" s="9" t="s">
         <v>311</v>
       </c>
@@ -7660,8 +7716,9 @@
       <c r="AW68" s="11" t="s">
         <v>196</v>
       </c>
+      <c r="AX68" s="4"/>
     </row>
-    <row r="69" spans="1:49" s="14" customFormat="1">
+    <row r="69" spans="1:50" s="14" customFormat="1">
       <c r="A69" s="12" t="s">
         <v>338</v>
       </c>
@@ -7743,8 +7800,9 @@
       <c r="AW69" s="14" t="s">
         <v>55</v>
       </c>
+      <c r="AX69" s="4"/>
     </row>
-    <row r="70" spans="1:49" s="14" customFormat="1">
+    <row r="70" spans="1:50" s="14" customFormat="1">
       <c r="A70" s="12" t="s">
         <v>339</v>
       </c>
@@ -7814,8 +7872,9 @@
       <c r="AW70" s="14" t="s">
         <v>353</v>
       </c>
+      <c r="AX70" s="4"/>
     </row>
-    <row r="71" spans="1:49" s="14" customFormat="1">
+    <row r="71" spans="1:50" s="14" customFormat="1">
       <c r="A71" s="12" t="s">
         <v>340</v>
       </c>
@@ -7963,8 +8022,9 @@
       <c r="AW71" s="14" t="s">
         <v>196</v>
       </c>
+      <c r="AX71" s="4"/>
     </row>
-    <row r="72" spans="1:49" s="17" customFormat="1">
+    <row r="72" spans="1:50" s="17" customFormat="1">
       <c r="A72" s="15" t="s">
         <v>354</v>
       </c>
@@ -8019,8 +8079,9 @@
       <c r="AW72" s="17" t="s">
         <v>55</v>
       </c>
+      <c r="AX72" s="4"/>
     </row>
-    <row r="73" spans="1:49" s="17" customFormat="1">
+    <row r="73" spans="1:50" s="17" customFormat="1">
       <c r="A73" s="15" t="s">
         <v>355</v>
       </c>
@@ -8063,8 +8124,9 @@
       <c r="AW73" s="17" t="s">
         <v>353</v>
       </c>
+      <c r="AX73" s="4"/>
     </row>
-    <row r="74" spans="1:49" s="17" customFormat="1">
+    <row r="74" spans="1:50" s="17" customFormat="1">
       <c r="A74" s="15" t="s">
         <v>356</v>
       </c>
@@ -8212,298 +8274,574 @@
       <c r="AW74" s="17" t="s">
         <v>196</v>
       </c>
+      <c r="AX74" s="4"/>
     </row>
-    <row r="75" spans="1:49">
+    <row r="75" spans="1:50" s="20" customFormat="1">
       <c r="A75" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F75" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="G75" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="H75" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="L75" s="23" t="s">
+      <c r="L75" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="N75" s="3" t="s">
+      <c r="N75" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="P75" s="3" t="s">
+      <c r="P75" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="R75" s="11" t="s">
+      <c r="R75" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="T75" s="14" t="s">
+      <c r="T75" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="U75" s="3" t="s">
+      <c r="U75" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="V75" s="14" t="s">
+      <c r="V75" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="X75" s="3" t="s">
+      <c r="X75" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="Y75" s="17" t="s">
+      <c r="Y75" s="20" t="s">
         <v>391</v>
       </c>
-      <c r="Z75" s="3" t="s">
+      <c r="Z75" s="20" t="s">
         <v>392</v>
       </c>
       <c r="AB75" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AC75" s="14" t="s">
+      <c r="AC75" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="AD75" s="23" t="s">
+      <c r="AD75" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="AE75" s="3" t="s">
+      <c r="AE75" s="20" t="s">
         <v>396</v>
       </c>
       <c r="AK75" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="AN75" s="3" t="s">
+      <c r="AN75" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="AW75" s="17" t="s">
+      <c r="AW75" s="20" t="s">
         <v>55</v>
       </c>
+      <c r="AX75" s="4"/>
     </row>
-    <row r="76" spans="1:49">
+    <row r="76" spans="1:50" s="20" customFormat="1">
       <c r="A76" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F76" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="G76" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="H76" s="3" t="s">
+      <c r="H76" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="L76" s="23" t="s">
+      <c r="L76" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="N76" s="3" t="s">
+      <c r="N76" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="P76" s="3" t="s">
+      <c r="P76" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="R76" s="11" t="s">
+      <c r="R76" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="T76" s="14" t="s">
+      <c r="T76" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="U76" s="3" t="s">
+      <c r="U76" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="V76" s="14" t="s">
+      <c r="V76" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="X76" s="3" t="s">
+      <c r="X76" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="Y76" s="17" t="s">
+      <c r="Y76" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="Z76" s="3" t="s">
+      <c r="Z76" s="20" t="s">
         <v>393</v>
       </c>
       <c r="AB76" s="20" t="s">
         <v>395</v>
       </c>
-      <c r="AC76" s="14" t="s">
+      <c r="AC76" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="AD76" s="23" t="s">
+      <c r="AD76" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="AE76" s="3" t="s">
+      <c r="AE76" s="20" t="s">
         <v>397</v>
       </c>
-      <c r="AK76" s="20"/>
-      <c r="AN76" s="3" t="s">
+      <c r="AN76" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="AW76" s="17" t="s">
+      <c r="AW76" s="20" t="s">
         <v>400</v>
       </c>
+      <c r="AX76" s="4"/>
     </row>
-    <row r="77" spans="1:49">
+    <row r="77" spans="1:50" s="20" customFormat="1">
       <c r="A77" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F77" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="G77" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="H77" s="3" t="s">
+      <c r="H77" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="I77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L77" s="23" t="s">
+      <c r="I77" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J77" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K77" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L77" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="M77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N77" s="3" t="s">
+      <c r="M77" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N77" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="O77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P77" s="3" t="s">
+      <c r="O77" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="P77" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="Q77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R77" s="11">
-        <v>2</v>
-      </c>
-      <c r="S77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="T77" s="14">
-        <v>1</v>
-      </c>
-      <c r="U77" s="3" t="s">
+      <c r="Q77" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="R77" s="20">
+        <v>2</v>
+      </c>
+      <c r="S77" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="T77" s="20">
+        <v>1</v>
+      </c>
+      <c r="U77" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="V77" s="14">
-        <v>1</v>
-      </c>
-      <c r="W77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="X77" s="3" t="s">
+      <c r="V77" s="20">
+        <v>1</v>
+      </c>
+      <c r="W77" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="X77" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="Y77" s="17" t="s">
+      <c r="Y77" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="Z77" s="3" t="s">
+      <c r="Z77" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="AA77" s="3" t="s">
+      <c r="AA77" s="20" t="s">
         <v>22</v>
       </c>
       <c r="AB77" s="20">
         <v>1</v>
       </c>
-      <c r="AC77" s="14">
-        <v>1</v>
-      </c>
-      <c r="AD77" s="23" t="s">
+      <c r="AC77" s="20">
+        <v>1</v>
+      </c>
+      <c r="AD77" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="AE77" s="3" t="s">
+      <c r="AE77" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="AF77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ77" s="3" t="s">
+      <c r="AF77" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG77" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH77" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI77" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ77" s="20" t="s">
         <v>22</v>
       </c>
       <c r="AK77" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="AL77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AN77" s="3" t="s">
+      <c r="AL77" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM77" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN77" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="AO77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AP77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AQ77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AR77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AS77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AT77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AU77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AV77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AW77" s="17" t="s">
+      <c r="AO77" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP77" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ77" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR77" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS77" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT77" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU77" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV77" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW77" s="20" t="s">
         <v>196</v>
       </c>
+      <c r="AX77" s="4"/>
+    </row>
+    <row r="78" spans="1:50" s="23" customFormat="1">
+      <c r="A78" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L78" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="M78" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="N78" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="P78" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="R78" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="T78" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="U78" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="V78" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="X78" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y78" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="AB78" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC78" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD78" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE78" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="AW78" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX78" s="4"/>
+    </row>
+    <row r="79" spans="1:50" s="23" customFormat="1">
+      <c r="A79" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="L79" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="M79" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="N79" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="P79" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="R79" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="T79" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="U79" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="V79" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="X79" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y79" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB79" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC79" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD79" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE79" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW79" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="AX79" s="4"/>
+    </row>
+    <row r="80" spans="1:50" s="23" customFormat="1">
+      <c r="A80" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="E80" s="23">
+        <v>1</v>
+      </c>
+      <c r="F80" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H80" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I80" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J80" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K80" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="L80" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="M80" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="N80" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="O80" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P80" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q80" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="R80" s="23">
+        <v>2</v>
+      </c>
+      <c r="S80" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="T80" s="23">
+        <v>1</v>
+      </c>
+      <c r="U80" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="V80" s="23">
+        <v>1</v>
+      </c>
+      <c r="W80" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="X80" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y80" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z80" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA80" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB80" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC80" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD80" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE80" s="23">
+        <v>1</v>
+      </c>
+      <c r="AF80" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG80" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH80" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI80" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ80" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK80" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL80" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM80" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN80" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO80" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP80" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ80" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR80" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS80" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT80" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU80" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV80" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW80" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="AX80" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -13975,201 +14313,201 @@
       </c>
     </row>
     <row r="26" spans="1:54">
-      <c r="A26" s="26">
+      <c r="A26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(A26)*3)*1,COLUMN(A26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="B26" s="26">
+        <v>CCF_154_B - stem_val</v>
+      </c>
+      <c r="B26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(B26)*3)*1,COLUMN(B26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="26">
+        <v>a</v>
+      </c>
+      <c r="C26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(C26)*3)*1,COLUMN(C26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(D26)*3)*1,COLUMN(D26)-1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(E26)*3)*1,COLUMN(E26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(F26)*3)*1,COLUMN(F26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="26">
+        <v>-</v>
+      </c>
+      <c r="G26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(G26)*3)*1,COLUMN(G26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="26">
+        <v>-</v>
+      </c>
+      <c r="H26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(H26)*3)*1,COLUMN(H26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="26">
+        <v>-</v>
+      </c>
+      <c r="I26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(I26)*3)*1,COLUMN(I26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="26">
+        <v>-</v>
+      </c>
+      <c r="J26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(J26)*3)*1,COLUMN(J26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="26">
+        <v>-</v>
+      </c>
+      <c r="K26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(K26)*3)*1,COLUMN(K26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="26">
+        <v>-</v>
+      </c>
+      <c r="L26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(L26)*3)*1,COLUMN(L26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="26">
+        <v>5</v>
+      </c>
+      <c r="M26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(M26)*3)*1,COLUMN(M26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="26">
+        <v>4</v>
+      </c>
+      <c r="N26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(N26)*3)*1,COLUMN(N26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="26">
+        <v>1</v>
+      </c>
+      <c r="O26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(O26)*3)*1,COLUMN(O26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="P26" s="26">
+        <v>-</v>
+      </c>
+      <c r="P26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(P26)*3)*1,COLUMN(P26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(Q26)*3)*1,COLUMN(Q26)-1)</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="R26" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(R26)*3)*1,COLUMN(R26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="S26" s="26">
+        <v>2</v>
+      </c>
+      <c r="S26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(S26)*3)*1,COLUMN(S26)-1)</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="T26" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(T26)*3)*1,COLUMN(T26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="U26" s="26">
+        <v>1</v>
+      </c>
+      <c r="U26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(U26)*3)*1,COLUMN(U26)-1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V26" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(V26)*3)*1,COLUMN(V26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="W26" s="26">
+        <v>1</v>
+      </c>
+      <c r="W26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(W26)*3)*1,COLUMN(W26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="X26" s="26">
+        <v>-</v>
+      </c>
+      <c r="X26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(X26)*3)*1,COLUMN(X26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="26">
+        <v>6</v>
+      </c>
+      <c r="Y26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(Y26)*3)*1,COLUMN(Y26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="26">
+        <v>4</v>
+      </c>
+      <c r="Z26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(Z26)*3)*1,COLUMN(Z26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="26">
+        <v>-</v>
+      </c>
+      <c r="AA26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AA26)*3)*1,COLUMN(AA26)-1)</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="AB26" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AB26)*3)*1,COLUMN(AB26)-1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC26" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AC26)*3)*1,COLUMN(AC26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AD26" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AD26)*3)*1,COLUMN(AD26)-1)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE26" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AE26)*3)*1,COLUMN(AE26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AF26" s="26">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AF26)*3)*1,COLUMN(AF26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AG26" s="26">
+        <v>-</v>
+      </c>
+      <c r="AG26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AG26)*3)*1,COLUMN(AG26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AH26" s="26">
+        <v>-</v>
+      </c>
+      <c r="AH26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AH26)*3)*1,COLUMN(AH26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AI26" s="26">
+        <v>-</v>
+      </c>
+      <c r="AI26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AI26)*3)*1,COLUMN(AI26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="26">
+        <v>-</v>
+      </c>
+      <c r="AJ26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AJ26)*3)*1,COLUMN(AJ26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AK26" s="26">
+        <v>-</v>
+      </c>
+      <c r="AK26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AK26)*3)*1,COLUMN(AK26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AL26" s="26">
+        <v>-</v>
+      </c>
+      <c r="AL26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AL26)*3)*1,COLUMN(AL26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AM26" s="26">
+        <v>-</v>
+      </c>
+      <c r="AM26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AM26)*3)*1,COLUMN(AM26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AN26" s="26">
+        <v>-</v>
+      </c>
+      <c r="AN26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AN26)*3)*1,COLUMN(AN26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AO26" s="26">
+        <v>-</v>
+      </c>
+      <c r="AO26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AO26)*3)*1,COLUMN(AO26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AP26" s="26">
+        <v>-</v>
+      </c>
+      <c r="AP26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AP26)*3)*1,COLUMN(AP26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ26" s="26">
+        <v>-</v>
+      </c>
+      <c r="AQ26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AQ26)*3)*1,COLUMN(AQ26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AR26" s="26">
+        <v>-</v>
+      </c>
+      <c r="AR26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AR26)*3)*1,COLUMN(AR26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AS26" s="26">
+        <v>-</v>
+      </c>
+      <c r="AS26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AS26)*3)*1,COLUMN(AS26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AT26" s="26">
+        <v>-</v>
+      </c>
+      <c r="AT26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AT26)*3)*1,COLUMN(AT26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AU26" s="26">
+        <v>-</v>
+      </c>
+      <c r="AU26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AU26)*3)*1,COLUMN(AU26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AV26" s="26">
+        <v>-</v>
+      </c>
+      <c r="AV26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AV26)*3)*1,COLUMN(AV26)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AW26" s="26">
+        <v>-</v>
+      </c>
+      <c r="AW26" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AW26)*3)*1,COLUMN(AW26)-1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX26" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AX26)*3)*1,COLUMN(AX26)-1)</f>

--- a/Datenerhebung/spreadsheet.xlsx
+++ b/Datenerhebung/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baldu\switchdrive\Documents_Balduin\Uni\@aktuel\Seminararbeit - Balladen\git\Seminararbeit-Balladen\Datenerhebung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F14FF1F-8BC8-4A2A-A0A9-B8BE4FE5C9E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478A7760-27E6-484B-964F-CD2E7837A80C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="418">
   <si>
     <t>TSB A 63</t>
   </si>
@@ -1255,6 +1255,39 @@
   </si>
   <si>
     <t>23-24</t>
+  </si>
+  <si>
+    <t>CCF_154_C - Motive</t>
+  </si>
+  <si>
+    <t>CCF_154_C - Strophe</t>
+  </si>
+  <si>
+    <t>CCF_154_C - stem_val</t>
+  </si>
+  <si>
+    <t>Auftrag an Mutter und Vater</t>
+  </si>
+  <si>
+    <t>17-18</t>
+  </si>
+  <si>
+    <t>CCF_154_D - Motive</t>
+  </si>
+  <si>
+    <t>CCF_154_D - Strophe</t>
+  </si>
+  <si>
+    <t>CCF_154_D - stem_val</t>
+  </si>
+  <si>
+    <t>15 Jahre</t>
+  </si>
+  <si>
+    <t>14-16</t>
+  </si>
+  <si>
+    <t>21-23</t>
   </si>
 </sst>
 </file>
@@ -1760,13 +1793,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX80"/>
+  <dimension ref="A1:AX86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="AT60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AX1" sqref="AX1:AX1048576"/>
+      <selection pane="bottomRight" activeCell="A84" sqref="A84:XFD86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -8843,6 +8876,552 @@
       </c>
       <c r="AX80" s="4"/>
     </row>
+    <row r="81" spans="1:49" s="11" customFormat="1">
+      <c r="A81" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="L81" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="N81" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="P81" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="R81" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="T81" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="U81" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="V81" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="X81" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y81" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="AB81" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC81" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD81" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE81" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF81" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="AN81" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="AW81" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:49" s="11" customFormat="1">
+      <c r="A82" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="L82" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="N82" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="P82" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="R82" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="T82" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="U82" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="V82" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="X82" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y82" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB82" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC82" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD82" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE82" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="AF82" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN82" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="AW82" s="11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="83" spans="1:49" s="11" customFormat="1">
+      <c r="A83" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I83" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J83" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K83" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L83" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="M83" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N83" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="O83" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P83" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q83" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="R83" s="11">
+        <v>2</v>
+      </c>
+      <c r="S83" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="T83" s="11">
+        <v>1</v>
+      </c>
+      <c r="U83" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="V83" s="11">
+        <v>1</v>
+      </c>
+      <c r="W83" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="X83" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y83" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z83" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA83" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB83" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC83" s="11">
+        <v>1</v>
+      </c>
+      <c r="AD83" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE83" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF83" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG83" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH83" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI83" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ83" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK83" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL83" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM83" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN83" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="AO83" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP83" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ83" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR83" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS83" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT83" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU83" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV83" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW83" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="84" spans="1:49" s="14" customFormat="1">
+      <c r="A84" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="L84" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="N84" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="P84" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="R84" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="T84" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="U84" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="V84" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="X84" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y84" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="AB84" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC84" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD84" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE84" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF84" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="AW84" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="1:49" s="14" customFormat="1">
+      <c r="A85" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="H85" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="L85" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="N85" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="P85" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="R85" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="T85" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="U85" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="V85" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="X85" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y85" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB85" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC85" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="AD85" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="AE85" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF85" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW85" s="14" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="86" spans="1:49" s="14" customFormat="1">
+      <c r="A86" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G86" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="I86" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J86" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K86" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L86" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="M86" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N86" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="O86" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P86" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q86" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="R86" s="14">
+        <v>2</v>
+      </c>
+      <c r="S86" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="T86" s="14">
+        <v>1</v>
+      </c>
+      <c r="U86" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="V86" s="14">
+        <v>1</v>
+      </c>
+      <c r="W86" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="X86" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y86" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z86" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA86" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB86" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC86" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD86" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE86" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF86" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG86" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH86" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI86" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ86" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK86" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL86" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM86" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN86" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO86" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP86" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ86" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR86" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS86" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT86" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU86" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV86" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW86" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14531,201 +15110,201 @@
       </c>
     </row>
     <row r="27" spans="1:54">
-      <c r="A27" s="26">
+      <c r="A27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(A27)*3)*1,COLUMN(A27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="B27" s="26">
+        <v>CCF_154_C - stem_val</v>
+      </c>
+      <c r="B27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(B27)*3)*1,COLUMN(B27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="26">
+        <v>a</v>
+      </c>
+      <c r="C27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(C27)*3)*1,COLUMN(C27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="26">
+        <v>1</v>
+      </c>
+      <c r="D27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(D27)*3)*1,COLUMN(D27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="26">
+        <v>2</v>
+      </c>
+      <c r="E27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(E27)*3)*1,COLUMN(E27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="26">
+        <v>4</v>
+      </c>
+      <c r="F27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(F27)*3)*1,COLUMN(F27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="26">
+        <v>-</v>
+      </c>
+      <c r="G27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(G27)*3)*1,COLUMN(G27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="26">
+        <v>-</v>
+      </c>
+      <c r="H27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(H27)*3)*1,COLUMN(H27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="26">
+        <v>-</v>
+      </c>
+      <c r="I27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(I27)*3)*1,COLUMN(I27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="26">
+        <v>-</v>
+      </c>
+      <c r="J27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(J27)*3)*1,COLUMN(J27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="26">
+        <v>-</v>
+      </c>
+      <c r="K27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(K27)*3)*1,COLUMN(K27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="26">
+        <v>-</v>
+      </c>
+      <c r="L27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(L27)*3)*1,COLUMN(L27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="26">
+        <v>5</v>
+      </c>
+      <c r="M27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(M27)*3)*1,COLUMN(M27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="26">
+        <v>-</v>
+      </c>
+      <c r="N27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(N27)*3)*1,COLUMN(N27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="26">
+        <v>1</v>
+      </c>
+      <c r="O27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(O27)*3)*1,COLUMN(O27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="P27" s="26">
+        <v>-</v>
+      </c>
+      <c r="P27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(P27)*3)*1,COLUMN(P27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(Q27)*3)*1,COLUMN(Q27)-1)</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="R27" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(R27)*3)*1,COLUMN(R27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="S27" s="26">
+        <v>2</v>
+      </c>
+      <c r="S27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(S27)*3)*1,COLUMN(S27)-1)</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="T27" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(T27)*3)*1,COLUMN(T27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="U27" s="26">
+        <v>1</v>
+      </c>
+      <c r="U27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(U27)*3)*1,COLUMN(U27)-1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V27" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(V27)*3)*1,COLUMN(V27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="W27" s="26">
+        <v>1</v>
+      </c>
+      <c r="W27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(W27)*3)*1,COLUMN(W27)-1)</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="X27" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(X27)*3)*1,COLUMN(X27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="Y27" s="26">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(Y27)*3)*1,COLUMN(Y27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="Z27" s="26">
+        <v>4</v>
+      </c>
+      <c r="Z27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(Z27)*3)*1,COLUMN(Z27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AA27" s="26">
+        <v>-</v>
+      </c>
+      <c r="AA27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AA27)*3)*1,COLUMN(AA27)-1)</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="AB27" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AB27)*3)*1,COLUMN(AB27)-1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AC27)*3)*1,COLUMN(AC27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AD27" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AD27)*3)*1,COLUMN(AD27)-1)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE27" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AE27)*3)*1,COLUMN(AE27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AF27" s="26">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AF27)*3)*1,COLUMN(AF27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AG27" s="26">
+        <v>6</v>
+      </c>
+      <c r="AG27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AG27)*3)*1,COLUMN(AG27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AH27" s="26">
+        <v>-</v>
+      </c>
+      <c r="AH27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AH27)*3)*1,COLUMN(AH27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AI27" s="26">
+        <v>-</v>
+      </c>
+      <c r="AI27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AI27)*3)*1,COLUMN(AI27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="26">
+        <v>-</v>
+      </c>
+      <c r="AJ27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AJ27)*3)*1,COLUMN(AJ27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AK27" s="26">
+        <v>-</v>
+      </c>
+      <c r="AK27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AK27)*3)*1,COLUMN(AK27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AL27" s="26">
+        <v>-</v>
+      </c>
+      <c r="AL27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AL27)*3)*1,COLUMN(AL27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AM27" s="26">
+        <v>-</v>
+      </c>
+      <c r="AM27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AM27)*3)*1,COLUMN(AM27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AN27" s="26">
+        <v>-</v>
+      </c>
+      <c r="AN27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AN27)*3)*1,COLUMN(AN27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AO27" s="26">
+        <v>5</v>
+      </c>
+      <c r="AO27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AO27)*3)*1,COLUMN(AO27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AP27" s="26">
+        <v>-</v>
+      </c>
+      <c r="AP27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AP27)*3)*1,COLUMN(AP27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ27" s="26">
+        <v>-</v>
+      </c>
+      <c r="AQ27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AQ27)*3)*1,COLUMN(AQ27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AR27" s="26">
+        <v>-</v>
+      </c>
+      <c r="AR27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AR27)*3)*1,COLUMN(AR27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AS27" s="26">
+        <v>-</v>
+      </c>
+      <c r="AS27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AS27)*3)*1,COLUMN(AS27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AT27" s="26">
+        <v>-</v>
+      </c>
+      <c r="AT27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AT27)*3)*1,COLUMN(AT27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AU27" s="26">
+        <v>-</v>
+      </c>
+      <c r="AU27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AU27)*3)*1,COLUMN(AU27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AV27" s="26">
+        <v>-</v>
+      </c>
+      <c r="AV27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AV27)*3)*1,COLUMN(AV27)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AW27" s="26">
+        <v>-</v>
+      </c>
+      <c r="AW27" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AW27)*3)*1,COLUMN(AW27)-1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX27" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AX27)*3)*1,COLUMN(AX27)-1)</f>
@@ -14749,201 +15328,201 @@
       </c>
     </row>
     <row r="28" spans="1:54">
-      <c r="A28" s="26">
+      <c r="A28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(A28)*3)*1,COLUMN(A28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="B28" s="26">
+        <v>CCF_154_D - stem_val</v>
+      </c>
+      <c r="B28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(B28)*3)*1,COLUMN(B28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="26">
+        <v>a</v>
+      </c>
+      <c r="C28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(C28)*3)*1,COLUMN(C28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="26">
+        <v>1</v>
+      </c>
+      <c r="D28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(D28)*3)*1,COLUMN(D28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="26">
+        <v>2</v>
+      </c>
+      <c r="E28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(E28)*3)*1,COLUMN(E28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="26">
+        <v>4</v>
+      </c>
+      <c r="F28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(F28)*3)*1,COLUMN(F28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="26">
+        <v>-</v>
+      </c>
+      <c r="G28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(G28)*3)*1,COLUMN(G28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="26">
+        <v>-</v>
+      </c>
+      <c r="H28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(H28)*3)*1,COLUMN(H28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="26">
+        <v>1</v>
+      </c>
+      <c r="I28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(I28)*3)*1,COLUMN(I28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="26">
+        <v>-</v>
+      </c>
+      <c r="J28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(J28)*3)*1,COLUMN(J28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="26">
+        <v>-</v>
+      </c>
+      <c r="K28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(K28)*3)*1,COLUMN(K28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="26">
+        <v>-</v>
+      </c>
+      <c r="L28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(L28)*3)*1,COLUMN(L28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="26">
+        <v>5</v>
+      </c>
+      <c r="M28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(M28)*3)*1,COLUMN(M28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="26">
+        <v>-</v>
+      </c>
+      <c r="N28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(N28)*3)*1,COLUMN(N28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="26">
+        <v>1</v>
+      </c>
+      <c r="O28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(O28)*3)*1,COLUMN(O28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="P28" s="26">
+        <v>-</v>
+      </c>
+      <c r="P28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(P28)*3)*1,COLUMN(P28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="26">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(Q28)*3)*1,COLUMN(Q28)-1)</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="R28" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(R28)*3)*1,COLUMN(R28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="S28" s="26">
+        <v>2</v>
+      </c>
+      <c r="S28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(S28)*3)*1,COLUMN(S28)-1)</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="T28" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(T28)*3)*1,COLUMN(T28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="U28" s="26">
+        <v>1</v>
+      </c>
+      <c r="U28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(U28)*3)*1,COLUMN(U28)-1)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V28" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(V28)*3)*1,COLUMN(V28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="W28" s="26">
+        <v>1</v>
+      </c>
+      <c r="W28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(W28)*3)*1,COLUMN(W28)-1)</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="X28" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(X28)*3)*1,COLUMN(X28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="Y28" s="26">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(Y28)*3)*1,COLUMN(Y28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="Z28" s="26">
+        <v>4</v>
+      </c>
+      <c r="Z28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(Z28)*3)*1,COLUMN(Z28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AA28" s="26">
+        <v>-</v>
+      </c>
+      <c r="AA28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AA28)*3)*1,COLUMN(AA28)-1)</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="AB28" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AB28)*3)*1,COLUMN(AB28)-1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC28" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AC28)*3)*1,COLUMN(AC28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AD28" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AD28)*3)*1,COLUMN(AD28)-1)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE28" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AE28)*3)*1,COLUMN(AE28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AF28" s="26">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AF28)*3)*1,COLUMN(AF28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AG28" s="26">
+        <v>6</v>
+      </c>
+      <c r="AG28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AG28)*3)*1,COLUMN(AG28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AH28" s="26">
+        <v>-</v>
+      </c>
+      <c r="AH28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AH28)*3)*1,COLUMN(AH28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AI28" s="26">
+        <v>-</v>
+      </c>
+      <c r="AI28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AI28)*3)*1,COLUMN(AI28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="26">
+        <v>-</v>
+      </c>
+      <c r="AJ28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AJ28)*3)*1,COLUMN(AJ28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AK28" s="26">
+        <v>-</v>
+      </c>
+      <c r="AK28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AK28)*3)*1,COLUMN(AK28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AL28" s="26">
+        <v>-</v>
+      </c>
+      <c r="AL28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AL28)*3)*1,COLUMN(AL28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AM28" s="26">
+        <v>-</v>
+      </c>
+      <c r="AM28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AM28)*3)*1,COLUMN(AM28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AN28" s="26">
+        <v>-</v>
+      </c>
+      <c r="AN28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AN28)*3)*1,COLUMN(AN28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AO28" s="26">
+        <v>-</v>
+      </c>
+      <c r="AO28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AO28)*3)*1,COLUMN(AO28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AP28" s="26">
+        <v>-</v>
+      </c>
+      <c r="AP28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AP28)*3)*1,COLUMN(AP28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ28" s="26">
+        <v>-</v>
+      </c>
+      <c r="AQ28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AQ28)*3)*1,COLUMN(AQ28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AR28" s="26">
+        <v>-</v>
+      </c>
+      <c r="AR28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AR28)*3)*1,COLUMN(AR28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AS28" s="26">
+        <v>-</v>
+      </c>
+      <c r="AS28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AS28)*3)*1,COLUMN(AS28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AT28" s="26">
+        <v>-</v>
+      </c>
+      <c r="AT28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AT28)*3)*1,COLUMN(AT28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AU28" s="26">
+        <v>-</v>
+      </c>
+      <c r="AU28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AU28)*3)*1,COLUMN(AU28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AV28" s="26">
+        <v>-</v>
+      </c>
+      <c r="AV28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AV28)*3)*1,COLUMN(AV28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AW28" s="26">
+        <v>-</v>
+      </c>
+      <c r="AW28" s="26" t="str">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AW28)*3)*1,COLUMN(AW28)-1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX28" s="26">
         <f ca="1">OFFSET(Tabelle1!$A$2,(ROW(AX28)*3)*1,COLUMN(AX28)-1)</f>
